--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108363.6236685522</v>
+        <v>100719.5618145219</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3518993.188223458</v>
+        <v>3518993.188223457</v>
       </c>
     </row>
     <row r="11">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.0839105424605</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>119.0839105424605</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>104.8891084057991</v>
       </c>
       <c r="G8" t="n">
-        <v>104.8891084057992</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="W8" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>119.0839105424605</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="X9" t="n">
-        <v>119.0839105424605</v>
+        <v>22.33910840579909</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.56059702154626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="D10" t="n">
-        <v>119.0839105424605</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>91.32747982963494</v>
       </c>
       <c r="G10" t="n">
-        <v>104.8891084057992</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.5616285761641</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="T10" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424605</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>119.0149546483952</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1429,16 +1429,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>65.45709821928079</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.74154241143485</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,7 +1545,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>18.87668342991684</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>176.1446634785937</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>316.9362555318981</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>49.34995949258661</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>50.94983199904654</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>168.3257202729434</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>3.008008304820851</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>49.34995949258661</v>
+        <v>17.75123914303109</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>105.8766303584832</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>213.5382021707748</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2259,7 +2259,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>7.722803593220153</v>
       </c>
       <c r="W22" t="n">
-        <v>170.3034090720313</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>176.1446634785937</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>361.464905015728</v>
       </c>
     </row>
     <row r="24">
@@ -2478,13 +2478,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,7 +2493,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>82.17043591154901</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2538,10 +2538,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>103.2603355135032</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>338.6830497639212</v>
       </c>
       <c r="F26" t="n">
-        <v>213.5382021707748</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>63.62546569681959</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>217.928721479169</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.6157531058527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>74.42811009354939</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>59.09966912296447</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3015,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>116.6395830120788</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>155.7114808343872</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,10 +3192,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258704</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>53.19117033386413</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>119.5279852140225</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>109.5540470185018</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>124.9554984777215</v>
+        <v>25.46021771264094</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>149.6157531058527</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>42.38852593713396</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -3681,7 +3681,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>7.722803593220905</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>302.8196695381251</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>307.0345460996071</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.0828845493175</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>154.9460495062423</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>136.0829573912428</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,13 +3985,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>124.0400056253074</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>104.8528596352489</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
@@ -4155,7 +4155,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>178.7865964885608</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.7620855184066</v>
+        <v>115.4753071926888</v>
       </c>
       <c r="C8" t="n">
-        <v>115.4753071926889</v>
+        <v>115.4753071926888</v>
       </c>
       <c r="D8" t="n">
-        <v>115.4753071926889</v>
+        <v>115.4753071926888</v>
       </c>
       <c r="E8" t="n">
-        <v>115.4753071926889</v>
+        <v>115.4753071926888</v>
       </c>
       <c r="F8" t="n">
-        <v>115.4753071926889</v>
+        <v>9.526712843396826</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396838</v>
+        <v>9.526712843396826</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396838</v>
+        <v>9.526712843396826</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585557</v>
+        <v>23.57954741585551</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558006</v>
+        <v>55.41632306557997</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318066</v>
+        <v>103.1313969318064</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183089</v>
+        <v>162.3261653183086</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590922</v>
+        <v>228.1917507590919</v>
       </c>
       <c r="N8" t="n">
-        <v>295.123110232657</v>
+        <v>295.1231102326566</v>
       </c>
       <c r="O8" t="n">
-        <v>358.324495033641</v>
+        <v>358.3244950336405</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455654</v>
+        <v>412.2654147455648</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990244995</v>
+        <v>452.7727990244989</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698419</v>
+        <v>476.3356421698413</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698419</v>
+        <v>476.3356421698413</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698419</v>
+        <v>476.3356421698413</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698419</v>
+        <v>356.0488638441238</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698419</v>
+        <v>235.7620855184063</v>
       </c>
       <c r="W8" t="n">
-        <v>356.0488638441242</v>
+        <v>115.4753071926888</v>
       </c>
       <c r="X8" t="n">
-        <v>356.0488638441242</v>
+        <v>115.4753071926888</v>
       </c>
       <c r="Y8" t="n">
-        <v>356.0488638441242</v>
+        <v>115.4753071926888</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.70702737294523</v>
+        <v>92.9105512272352</v>
       </c>
       <c r="C9" t="n">
-        <v>94.70702737294523</v>
+        <v>92.9105512272352</v>
       </c>
       <c r="D9" t="n">
-        <v>94.70702737294523</v>
+        <v>92.9105512272352</v>
       </c>
       <c r="E9" t="n">
-        <v>94.70702737294523</v>
+        <v>92.9105512272352</v>
       </c>
       <c r="F9" t="n">
-        <v>94.70702737294523</v>
+        <v>9.526712843396826</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396838</v>
+        <v>9.526712843396826</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396838</v>
+        <v>9.526712843396826</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114677</v>
+        <v>16.43678475114675</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437494</v>
+        <v>67.70899752367903</v>
       </c>
       <c r="K9" t="n">
-        <v>67.80722760369076</v>
+        <v>100.1176749029948</v>
       </c>
       <c r="L9" t="n">
-        <v>116.3926722602812</v>
+        <v>143.6951411186839</v>
       </c>
       <c r="M9" t="n">
-        <v>234.285743697317</v>
+        <v>194.5479887760996</v>
       </c>
       <c r="N9" t="n">
-        <v>352.1788151343529</v>
+        <v>246.7467599936362</v>
       </c>
       <c r="O9" t="n">
-        <v>399.9304929406854</v>
+        <v>294.4984377999687</v>
       </c>
       <c r="P9" t="n">
-        <v>438.2554242425473</v>
+        <v>332.8233691018306</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.8746258735224</v>
+        <v>358.4425707328056</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698419</v>
+        <v>476.3356421698413</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698419</v>
+        <v>476.3356421698413</v>
       </c>
       <c r="T9" t="n">
-        <v>356.0488638441242</v>
+        <v>476.3356421698413</v>
       </c>
       <c r="U9" t="n">
-        <v>356.0488638441242</v>
+        <v>356.0488638441238</v>
       </c>
       <c r="V9" t="n">
-        <v>356.0488638441242</v>
+        <v>235.7620855184063</v>
       </c>
       <c r="W9" t="n">
-        <v>235.7620855184066</v>
+        <v>115.4753071926888</v>
       </c>
       <c r="X9" t="n">
-        <v>115.4753071926889</v>
+        <v>92.9105512272352</v>
       </c>
       <c r="Y9" t="n">
-        <v>94.70702737294523</v>
+        <v>92.9105512272352</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.7620855184066</v>
+        <v>222.0634707950082</v>
       </c>
       <c r="C10" t="n">
-        <v>235.7620855184066</v>
+        <v>101.7766924692907</v>
       </c>
       <c r="D10" t="n">
-        <v>115.4753071926889</v>
+        <v>101.7766924692907</v>
       </c>
       <c r="E10" t="n">
-        <v>115.4753071926889</v>
+        <v>101.7766924692907</v>
       </c>
       <c r="F10" t="n">
-        <v>115.4753071926889</v>
+        <v>9.526712843396826</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396838</v>
+        <v>9.526712843396826</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396838</v>
+        <v>9.526712843396826</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396838</v>
+        <v>9.526712843396826</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011149</v>
+        <v>108.0024003011148</v>
       </c>
       <c r="K10" t="n">
-        <v>225.8954717381507</v>
+        <v>127.5511863760666</v>
       </c>
       <c r="L10" t="n">
-        <v>250.9111875026078</v>
+        <v>152.5669021405237</v>
       </c>
       <c r="M10" t="n">
-        <v>277.2867523140628</v>
+        <v>178.9424669519786</v>
       </c>
       <c r="N10" t="n">
-        <v>303.0351651465874</v>
+        <v>220.1991823989656</v>
       </c>
       <c r="O10" t="n">
-        <v>326.8179918988058</v>
+        <v>338.0922538360013</v>
       </c>
       <c r="P10" t="n">
-        <v>358.442570732806</v>
+        <v>358.4425707328056</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698419</v>
+        <v>476.3356421698413</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698419</v>
+        <v>462.6370274464433</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698419</v>
+        <v>342.3502491207257</v>
       </c>
       <c r="T10" t="n">
-        <v>356.0488638441242</v>
+        <v>222.0634707950082</v>
       </c>
       <c r="U10" t="n">
-        <v>356.0488638441242</v>
+        <v>222.0634707950082</v>
       </c>
       <c r="V10" t="n">
-        <v>235.7620855184066</v>
+        <v>222.0634707950082</v>
       </c>
       <c r="W10" t="n">
-        <v>235.7620855184066</v>
+        <v>222.0634707950082</v>
       </c>
       <c r="X10" t="n">
-        <v>235.7620855184066</v>
+        <v>222.0634707950082</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.7620855184066</v>
+        <v>222.0634707950082</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1782.900983623584</v>
+        <v>595.2911070472169</v>
       </c>
       <c r="C11" t="n">
-        <v>1344.758510807007</v>
+        <v>595.2911070472169</v>
       </c>
       <c r="D11" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E11" t="n">
         <v>475.073981139747</v>
@@ -5038,16 +5038,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5077,16 +5077,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1782.900983623584</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>1782.900983623584</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X11" t="n">
-        <v>1782.900983623584</v>
+        <v>1429.876801232471</v>
       </c>
       <c r="Y11" t="n">
-        <v>1782.900983623584</v>
+        <v>1021.590677532125</v>
       </c>
     </row>
     <row r="12">
@@ -5102,13 +5102,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5129,7 +5129,7 @@
         <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.196554659879</v>
+        <v>730.9745012407179</v>
       </c>
       <c r="C13" t="n">
-        <v>856.6348431431041</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D13" t="n">
-        <v>690.7568503446269</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E13" t="n">
-        <v>520.9988465953642</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
         <v>47.20655154895474</v>
@@ -5205,16 +5205,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>818.7256495113488</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675982</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2081.94094549648</v>
+        <v>1954.586457855462</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.98543736691</v>
+        <v>1667.630949725893</v>
       </c>
       <c r="W13" t="n">
-        <v>1522.959032953202</v>
+        <v>1395.604545312184</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.567278286614</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.147607600722</v>
+        <v>922.7931199597051</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2182.403674944107</v>
+        <v>1470.343171017674</v>
       </c>
       <c r="C14" t="n">
-        <v>1744.26120212753</v>
+        <v>1470.343171017674</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.351417301975</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
         <v>1463.013992431967</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X14" t="n">
-        <v>2360.327577447737</v>
+        <v>1470.343171017674</v>
       </c>
       <c r="Y14" t="n">
-        <v>2360.327577447737</v>
+        <v>1470.343171017674</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.081764785142</v>
+        <v>698.5773814739204</v>
       </c>
       <c r="C16" t="n">
-        <v>443.520053268367</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="D16" t="n">
-        <v>443.520053268367</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E16" t="n">
-        <v>273.7620495191042</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F16" t="n">
-        <v>97.05499548086041</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
         <v>47.20655154895474</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1922.189338088665</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270317</v>
+        <v>1635.233829959095</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856609</v>
+        <v>1363.207425545387</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.320054190021</v>
+        <v>1117.815670878799</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041292</v>
+        <v>890.3960001929074</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1785.939375850676</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C17" t="n">
-        <v>1347.796903034099</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D17" t="n">
-        <v>911.8871182085436</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E17" t="n">
-        <v>478.1123733668388</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F17" t="n">
-        <v>50.24494377604651</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>50.24494377604651</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
         <v>805.4408022867025</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1785.939375850676</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W17" t="n">
-        <v>1785.939375850676</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X17" t="n">
-        <v>1785.939375850676</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="Y17" t="n">
-        <v>1785.939375850676</v>
+        <v>616.7352229431577</v>
       </c>
     </row>
     <row r="18">
@@ -5576,13 +5576,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
@@ -5594,22 +5594,22 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.081764785142</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C19" t="n">
-        <v>443.520053268367</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="D19" t="n">
-        <v>443.520053268367</v>
+        <v>411.6021539253816</v>
       </c>
       <c r="E19" t="n">
-        <v>273.7620495191042</v>
+        <v>241.8441501761188</v>
       </c>
       <c r="F19" t="n">
-        <v>97.05499548086041</v>
+        <v>65.13709613787503</v>
       </c>
       <c r="G19" t="n">
         <v>47.20655154895474</v>
@@ -5685,13 +5685,13 @@
         <v>1272.302332591134</v>
       </c>
       <c r="N19" t="n">
-        <v>1842.060047552668</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O19" t="n">
-        <v>1959.82592890043</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270317</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856609</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041292</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>662.4043965773309</v>
+        <v>553.6553341406727</v>
       </c>
       <c r="C20" t="n">
-        <v>662.4043965773309</v>
+        <v>553.6553341406727</v>
       </c>
       <c r="D20" t="n">
-        <v>662.4043965773309</v>
+        <v>553.6553341406727</v>
       </c>
       <c r="E20" t="n">
-        <v>662.4043965773309</v>
+        <v>553.6553341406727</v>
       </c>
       <c r="F20" t="n">
-        <v>662.4043965773309</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>262.901705256808</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228019</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U20" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.402314586987</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W20" t="n">
-        <v>1081.54685999802</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X20" t="n">
-        <v>662.4043965773309</v>
+        <v>961.9414578410193</v>
       </c>
       <c r="Y20" t="n">
-        <v>662.4043965773309</v>
+        <v>553.6553341406727</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.291841223631</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>413.3628026016839</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>997.5438780199987</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N22" t="n">
-        <v>1125.042789823888</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1928.945530822402</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W22" t="n">
-        <v>1756.921885295098</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.53013062851</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.110459942618</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2182.403674944107</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C23" t="n">
-        <v>1744.26120212753</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.351417301975</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E23" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F23" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>2182.403674944107</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.403674944107</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X23" t="n">
-        <v>2182.403674944107</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2182.403674944107</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="24">
@@ -6059,13 +6059,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.196554659879</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C25" t="n">
-        <v>856.6348431431041</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D25" t="n">
-        <v>690.7568503446269</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E25" t="n">
-        <v>520.9988465953642</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="F25" t="n">
-        <v>344.2917925571204</v>
+        <v>294.9481722511323</v>
       </c>
       <c r="G25" t="n">
-        <v>179.5506121696388</v>
+        <v>130.2069918636507</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
         <v>106.1122152511379</v>
@@ -6153,19 +6153,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092383</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O25" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W25" t="n">
-        <v>1552.738213270317</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X25" t="n">
-        <v>1448.434844064758</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y25" t="n">
-        <v>1221.015173378866</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>662.4043965773309</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="C26" t="n">
-        <v>662.4043965773309</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="D26" t="n">
-        <v>662.4043965773309</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="E26" t="n">
-        <v>662.4043965773309</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
@@ -6265,13 +6265,13 @@
         <v>1486.402314586987</v>
       </c>
       <c r="W26" t="n">
-        <v>1081.54685999802</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X26" t="n">
-        <v>662.4043965773309</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y26" t="n">
-        <v>662.4043965773309</v>
+        <v>1486.402314586987</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.655226289377</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C28" t="n">
-        <v>471.655226289377</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D28" t="n">
-        <v>471.655226289377</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E28" t="n">
-        <v>471.655226289377</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F28" t="n">
         <v>407.3870791208724</v>
@@ -6384,22 +6384,22 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>289.4920009833859</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L28" t="n">
-        <v>413.3628026016839</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M28" t="n">
-        <v>997.5438780199987</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N28" t="n">
-        <v>1567.301592981533</v>
+        <v>1708.047382044527</v>
       </c>
       <c r="O28" t="n">
-        <v>2104.736723555076</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540314</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>1897.950331655013</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774552</v>
+        <v>1610.994823525444</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1338.968419111735</v>
       </c>
       <c r="X28" t="n">
-        <v>890.8935156942559</v>
+        <v>1338.968419111735</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083642</v>
+        <v>1111.548748425843</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
         <v>276.0532770435809</v>
@@ -6469,7 +6469,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6484,28 +6484,28 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X29" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y29" t="n">
         <v>2209.200554108492</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1029.196554659879</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C31" t="n">
-        <v>856.6348431431041</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D31" t="n">
-        <v>690.7568503446269</v>
+        <v>299.093514772602</v>
       </c>
       <c r="E31" t="n">
-        <v>520.9988465953642</v>
+        <v>299.093514772602</v>
       </c>
       <c r="F31" t="n">
-        <v>344.2917925571204</v>
+        <v>122.3864607343582</v>
       </c>
       <c r="G31" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895474</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L31" t="n">
-        <v>733.4227107706872</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M31" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N31" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O31" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2300.630941969995</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2058.383717873402</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1779.997085922144</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1493.041577792575</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1221.015173378866</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1221.015173378866</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y31" t="n">
-        <v>1221.015173378866</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>908.8487259814518</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>908.8487259814518</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
         <v>908.8487259814518</v>
@@ -6688,31 +6688,31 @@
         <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K32" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O32" t="n">
         <v>1775.96950697326</v>
@@ -6721,31 +6721,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W32" t="n">
-        <v>2162.576883587396</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X32" t="n">
-        <v>1743.434420166706</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y32" t="n">
-        <v>1335.14829646636</v>
+        <v>1900.718744241845</v>
       </c>
     </row>
     <row r="33">
@@ -6761,19 +6761,19 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.353309902451</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C34" t="n">
-        <v>389.7915983856759</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D34" t="n">
-        <v>223.9136055871985</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.355695376305</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N34" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818746</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392289</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2306.599122565046</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2064.351898468452</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.965266517195</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.009758387626</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W34" t="n">
-        <v>1226.983353973917</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X34" t="n">
-        <v>981.5915993073299</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>754.1719286214382</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>755.070575821621</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>316.9281030050443</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>316.9281030050443</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>316.9281030050443</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
         <v>276.0532770435809</v>
@@ -6967,22 +6967,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W35" t="n">
-        <v>1703.23450154268</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X35" t="n">
-        <v>1284.09203812199</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y35" t="n">
-        <v>875.8059144216437</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="36">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>858.3289888817353</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C37" t="n">
-        <v>685.7672773649603</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D37" t="n">
-        <v>519.889284566483</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="E37" t="n">
-        <v>350.1312808172202</v>
+        <v>136.0192297416369</v>
       </c>
       <c r="F37" t="n">
-        <v>173.4242267789764</v>
+        <v>136.0192297416369</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M37" t="n">
-        <v>1690.512214359095</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1887.361501150537</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>2081.94094549648</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.98543736691</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W37" t="n">
-        <v>1522.959032953202</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.567278286614</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.147607600722</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>1455.419164361049</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>1019.509379535494</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>585.7346346937888</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>157.8672051029966</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W38" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X38" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="39">
@@ -7232,22 +7232,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1036.997366370204</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C40" t="n">
-        <v>864.4356548534284</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D40" t="n">
-        <v>698.5576620549512</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="E40" t="n">
-        <v>528.7996583056884</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="F40" t="n">
-        <v>352.0926042674446</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>187.351423879963</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>55.00736325927889</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M40" t="n">
-        <v>1412.355695376305</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1973.653814855378</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1701.62741044167</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1456.235655775082</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>1228.815985089191</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2319.861207662534</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="C41" t="n">
-        <v>2013.98275358362</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="D41" t="n">
-        <v>1578.072968758064</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E41" t="n">
-        <v>1144.298223916359</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G41" t="n">
         <v>316.9281030050443</v>
@@ -7447,16 +7447,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>2009.725302511416</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662534</v>
+        <v>1604.869847922449</v>
       </c>
       <c r="X41" t="n">
-        <v>2319.861207662534</v>
+        <v>1604.869847922449</v>
       </c>
       <c r="Y41" t="n">
-        <v>2319.861207662534</v>
+        <v>1604.869847922449</v>
       </c>
     </row>
     <row r="42">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>896.8524940391952</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>724.2907825224202</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>558.4127897239429</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7614,7 +7614,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1035.320054190021</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2182.403674944107</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C44" t="n">
-        <v>1744.26120212753</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.351417301975</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E44" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895474</v>
@@ -7645,13 +7645,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
         <v>805.4408022867025</v>
@@ -7681,19 +7681,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>2194.568272687476</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>2194.568272687476</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662534</v>
+        <v>2194.568272687476</v>
       </c>
       <c r="X44" t="n">
-        <v>2319.861207662534</v>
+        <v>1775.425809266787</v>
       </c>
       <c r="Y44" t="n">
-        <v>2319.861207662534</v>
+        <v>1775.425809266787</v>
       </c>
     </row>
     <row r="45">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>450.2037719866647</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L46" t="n">
-        <v>688.1212571728194</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.302332591134</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N46" t="n">
-        <v>1399.801244395024</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O46" t="n">
-        <v>1937.236374968567</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
         <v>2105.896438675982</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1937.514407000715</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1937.514407000715</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8531,19 +8531,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>32.63681545384256</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>5.058564081718373</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>67.71739775719209</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>66.35787900959511</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>106.4970253946629</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190311</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8622,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>15.66495213582067</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698725</v>
       </c>
       <c r="P10" t="n">
-        <v>11.38814337090508</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.852087734065</v>
+        <v>104.8520877340649</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
-        <v>175.7179764032071</v>
+        <v>70.05088382580993</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9333,13 +9333,13 @@
         <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P19" t="n">
-        <v>45.75904403825052</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9561,19 +9561,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>419.0018357134411</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042871</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>434.5380041676942</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>69.27619576520605</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="L31" t="n">
-        <v>45.75904403825041</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,19 +10515,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>177.1920849464597</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>10.62967161640017</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>70.05088382580988</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -10989,19 +10989,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>10.62967161639949</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11226,19 +11226,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1920849464597</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>263.1722038422878</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>68.57677528255708</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.9526642375982</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>314.6771375459505</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23032,10 +23032,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>318.6996468890852</v>
       </c>
       <c r="G8" t="n">
-        <v>292.1158482464166</v>
+        <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
         <v>282.3584801445919</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796777</v>
+        <v>74.18125311796778</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>256.599767943293</v>
+        <v>137.5158574008327</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>239.9068700230514</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006166</v>
+        <v>281.7229895006167</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -23111,10 +23111,10 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
         <v>39.36037526809192</v>
@@ -23153,22 +23153,22 @@
         <v>59.05530966656966</v>
       </c>
       <c r="T9" t="n">
-        <v>8.975812792898214</v>
+        <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5598441976481</v>
+        <v>55.47593365518782</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>78.04243221616031</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167745</v>
+        <v>64.38561618167759</v>
       </c>
       <c r="X9" t="n">
-        <v>34.23485086104833</v>
+        <v>130.9796529977097</v>
       </c>
       <c r="Y9" t="n">
-        <v>104.6603244070252</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -23181,25 +23181,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>51.75218385914698</v>
       </c>
       <c r="D10" t="n">
-        <v>45.13530232803205</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>83.6125036682264</v>
       </c>
       <c r="G10" t="n">
-        <v>58.87629393274245</v>
+        <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742792</v>
+        <v>82.66219243742793</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616409</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>35.60310718843937</v>
       </c>
       <c r="T10" t="n">
-        <v>123.6105491751613</v>
+        <v>123.6105491751615</v>
       </c>
       <c r="U10" t="n">
         <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058134</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>312.5357323289047</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>293.5336823462309</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>169.1588901203624</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>256.7260822018276</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>245.891911301465</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>114.6144314454018</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23560,7 +23560,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>113.7438090910202</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>224.6529336326979</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>253.7108545071153</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>264.0163276367078</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>113.7438090910202</v>
+        <v>145.3425294405757</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>317.7121249364012</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>53.48613377075391</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>276.3631494550537</v>
       </c>
       <c r="W22" t="n">
-        <v>99.00273129754012</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>182.8461170869181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>42.73835744761504</v>
       </c>
     </row>
     <row r="24">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>48.85018410292825</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>139.6775016064185</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>90.75394762936651</v>
       </c>
       <c r="F26" t="n">
-        <v>210.0505531241096</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24606,13 +24606,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>111.3145178010417</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.67404415257539</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y29" t="n">
-        <v>254.5875093574904</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>88.66565849005737</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>83.88260398784334</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>305.3969917679798</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>245.0954192086898</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>114.8692533779055</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>89.79110277694367</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.5085895660362</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>294.6492154448413</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>38.1382701058853</v>
+        <v>137.6335508709658</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>285.9536173888162</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25450,7 +25450,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>209.375027459659</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>132.5514575607274</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>54.74153010489353</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>130.9413785502858</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>51.95623446590463</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.81754798247974</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>13.11437420552784</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.9536173888159</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25921,7 +25921,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>132.4399789383938</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,7 +25930,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.20756407652125</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>90.51954388101061</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>88951.67047506184</v>
+        <v>88951.67047506176</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>396074.8159010784</v>
+        <v>396074.8159010785</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>396074.8159010784</v>
+        <v>396074.8159010785</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>396074.8159010784</v>
+        <v>396074.8159010785</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>396074.8159010785</v>
+        <v>396074.8159010784</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>396074.8159010784</v>
+        <v>396074.8159010783</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>396074.8159010785</v>
+        <v>396074.8159010783</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>396074.8159010783</v>
+        <v>396074.8159010784</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>396074.8159010783</v>
+        <v>396074.8159010785</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>396074.8159010785</v>
+        <v>396074.8159010784</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>396074.8159010785</v>
+        <v>396074.8159010783</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>396074.8159010783</v>
+        <v>396074.8159010784</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>36428.59575072084</v>
+        <v>36428.59575072081</v>
       </c>
       <c r="E2" t="n">
         <v>165162.4498658582</v>
@@ -26334,28 +26334,28 @@
         <v>165162.4498658581</v>
       </c>
       <c r="I2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="J2" t="n">
         <v>165162.4498658582</v>
       </c>
       <c r="K2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="L2" t="n">
         <v>165162.4498658582</v>
       </c>
       <c r="M2" t="n">
+        <v>165162.4498658582</v>
+      </c>
+      <c r="N2" t="n">
         <v>165162.4498658581</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>165162.4498658582</v>
       </c>
-      <c r="O2" t="n">
-        <v>165162.4498658581</v>
-      </c>
       <c r="P2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730575</v>
+        <v>117708.4675730573</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180447</v>
+        <v>439858.2450180448</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4054.87751683692</v>
+        <v>4054.877516836916</v>
       </c>
       <c r="E4" t="n">
         <v>11163.53558956959</v>
@@ -26438,7 +26438,7 @@
         <v>11163.53558956959</v>
       </c>
       <c r="I4" t="n">
-        <v>11163.53558956959</v>
+        <v>11163.53558956958</v>
       </c>
       <c r="J4" t="n">
         <v>11163.53558956959</v>
@@ -26475,7 +26475,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239233</v>
+        <v>42922.56227239232</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963782</v>
@@ -26487,10 +26487,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963782</v>
@@ -26499,13 +26499,13 @@
         <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-128257.3116115658</v>
+        <v>-129424.2104077169</v>
       </c>
       <c r="E6" t="n">
-        <v>-331910.4119513939</v>
+        <v>-332464.292394616</v>
       </c>
       <c r="F6" t="n">
-        <v>107947.8330666507</v>
+        <v>107393.9526234288</v>
       </c>
       <c r="G6" t="n">
-        <v>107947.8330666507</v>
+        <v>107393.9526234288</v>
       </c>
       <c r="H6" t="n">
-        <v>107947.8330666507</v>
+        <v>107393.9526234288</v>
       </c>
       <c r="I6" t="n">
-        <v>107947.8330666507</v>
+        <v>107393.9526234288</v>
       </c>
       <c r="J6" t="n">
-        <v>107947.8330666508</v>
+        <v>107393.9526234288</v>
       </c>
       <c r="K6" t="n">
-        <v>107947.8330666508</v>
+        <v>107393.9526234288</v>
       </c>
       <c r="L6" t="n">
-        <v>77808.7670635489</v>
+        <v>77254.88662032694</v>
       </c>
       <c r="M6" t="n">
-        <v>-9426.748493097461</v>
+        <v>-9980.628936319345</v>
       </c>
       <c r="N6" t="n">
-        <v>107947.8330666507</v>
+        <v>107393.9526234288</v>
       </c>
       <c r="O6" t="n">
-        <v>107947.8330666507</v>
+        <v>107393.9526234288</v>
       </c>
       <c r="P6" t="n">
-        <v>107947.8330666507</v>
+        <v>107393.9526234288</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748044</v>
+        <v>94.25048217480429</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
@@ -26752,10 +26752,10 @@
         <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26795,7 +26795,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="E4" t="n">
         <v>590.0818943619342</v>
@@ -26807,10 +26807,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619342</v>
@@ -26819,13 +26819,13 @@
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480442</v>
+        <v>94.25048217480429</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184168</v>
+        <v>372.4514459184169</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194738</v>
+        <v>470.9979838194739</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424604</v>
       </c>
       <c r="M4" t="n">
         <v>470.9979838194738</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194738</v>
+        <v>470.9979838194739</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529822</v>
+        <v>0.3788964107529818</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623981</v>
+        <v>3.880372866623976</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555436</v>
+        <v>14.60740387555435</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214596</v>
+        <v>32.15835924214592</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093197</v>
+        <v>48.19704430931964</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990129</v>
+        <v>59.79269533990122</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462965</v>
+        <v>66.53089438462956</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168156</v>
+        <v>67.60743381168147</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725659</v>
+        <v>63.83978262725651</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679233</v>
+        <v>54.48577748679227</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670114</v>
+        <v>40.91654977670109</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196204</v>
+        <v>23.80085166196201</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033592</v>
+        <v>8.634101960033581</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65861903807118</v>
+        <v>1.658619038071178</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023857</v>
+        <v>0.03031171286023854</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.202727452225051</v>
+        <v>0.2027274522250507</v>
       </c>
       <c r="H9" t="n">
-        <v>1.95792039385773</v>
+        <v>1.957920393857727</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888818</v>
+        <v>6.979870613888809</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780624</v>
+        <v>19.15329845780622</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688466</v>
+        <v>32.73603775688462</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211031</v>
+        <v>44.01764264211025</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526839</v>
+        <v>51.36651278526833</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286535</v>
+        <v>52.72603153286529</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619447</v>
+        <v>48.23401798619442</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006259</v>
+        <v>38.71205182006254</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542932</v>
+        <v>25.87798144542929</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779747</v>
+        <v>12.58688514779745</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531098</v>
+        <v>3.765573509531094</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457096</v>
+        <v>0.8171338973457086</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322704</v>
+        <v>0.01333733238322703</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889915</v>
+        <v>0.1699598858889913</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540308</v>
+        <v>1.511097894540306</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643492</v>
+        <v>5.111157295643486</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323517</v>
+        <v>12.01616393235169</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055738</v>
+        <v>19.74624856055735</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207789</v>
+        <v>25.26839976207786</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803528</v>
+        <v>26.64198465803524</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063087</v>
+        <v>26.00849781063085</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254731</v>
+        <v>24.02305732547307</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333766</v>
+        <v>20.55587565333763</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839546</v>
+        <v>14.23182280839545</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517745</v>
+        <v>7.642014505517735</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083606</v>
+        <v>2.961937284083602</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075091</v>
+        <v>0.7261922397075082</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00927053923030864</v>
+        <v>0.009270539230308628</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -33754,7 +33754,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -35169,31 +35169,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642296</v>
+        <v>14.19478239642295</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214596</v>
+        <v>32.15835924214592</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093197</v>
+        <v>48.19704430931962</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990134</v>
+        <v>59.79269533990126</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462965</v>
+        <v>66.53089438462956</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168155</v>
+        <v>67.60743381168149</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725657</v>
+        <v>63.83978262725651</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679236</v>
+        <v>54.48577748679224</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670112</v>
+        <v>40.91654977670106</v>
       </c>
       <c r="R8" t="n">
         <v>23.80085166196204</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888819</v>
+        <v>6.97987061388881</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780624</v>
+        <v>51.79011391164877</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688467</v>
+        <v>32.73603775688463</v>
       </c>
       <c r="L9" t="n">
-        <v>49.07620672382868</v>
+        <v>44.01764264211025</v>
       </c>
       <c r="M9" t="n">
-        <v>119.0839105424605</v>
+        <v>51.36651278526833</v>
       </c>
       <c r="N9" t="n">
-        <v>119.0839105424605</v>
+        <v>52.72603153286528</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619449</v>
+        <v>48.23401798619443</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006258</v>
+        <v>38.71205182006253</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542933</v>
+        <v>25.87798144542927</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779749</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143237</v>
+        <v>99.47039137143236</v>
       </c>
       <c r="K10" t="n">
-        <v>119.0839105424605</v>
+        <v>19.74624856055736</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207788</v>
+        <v>25.26839976207785</v>
       </c>
       <c r="M10" t="n">
         <v>26.64198465803526</v>
       </c>
       <c r="N10" t="n">
-        <v>26.0084978106309</v>
+        <v>41.67344994645151</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547313</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="P10" t="n">
-        <v>31.94401902424272</v>
+        <v>20.55587565333764</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424603</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35491,16 +35491,16 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35573,19 +35573,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>304.5047560030955</v>
+        <v>198.8376634256983</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35664,13 +35664,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35962,7 +35962,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562348</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35971,16 +35971,16 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36053,16 +36053,16 @@
         <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P19" t="n">
-        <v>147.5459694702538</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>537.9572714182509</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36518,19 +36518,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409517</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>563.3247837675826</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561045</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>171.0631211972095</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36831,31 +36831,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>254.5083025654566</v>
       </c>
       <c r="L31" t="n">
-        <v>170.881065874915</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37077,7 +37077,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>139.4164512162886</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>254.5083025654566</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>198.8376634256983</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M40" t="n">
-        <v>309.1157135712374</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>139.4164512162879</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>139.4164512162881</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>388.2942256789524</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
@@ -38192,7 +38192,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>170.3637007145605</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
         <v>240.36368292423</v>
